--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.30516578172753</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H2">
-        <v>1.30516578172753</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I2">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J2">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.608437038669001</v>
+        <v>1.359321</v>
       </c>
       <c r="N2">
-        <v>0.608437038669001</v>
+        <v>4.077963</v>
       </c>
       <c r="O2">
-        <v>0.6631267884036741</v>
+        <v>0.5129683551755682</v>
       </c>
       <c r="P2">
-        <v>0.6631267884036741</v>
+        <v>0.512968355175568</v>
       </c>
       <c r="Q2">
-        <v>0.79411120320641</v>
+        <v>1.991635896463001</v>
       </c>
       <c r="R2">
-        <v>0.79411120320641</v>
+        <v>17.924723068167</v>
       </c>
       <c r="S2">
-        <v>0.01959386922116258</v>
+        <v>0.01656792859984151</v>
       </c>
       <c r="T2">
-        <v>0.01959386922116258</v>
+        <v>0.0165679285998415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.30516578172753</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H3">
-        <v>1.30516578172753</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I3">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J3">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.309090422608312</v>
+        <v>0.6503416666666667</v>
       </c>
       <c r="N3">
-        <v>0.309090422608312</v>
+        <v>1.951025</v>
       </c>
       <c r="O3">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="P3">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="Q3">
-        <v>0.4034142430480701</v>
+        <v>0.9528608829694447</v>
       </c>
       <c r="R3">
-        <v>0.4034142430480701</v>
+        <v>8.575747946725002</v>
       </c>
       <c r="S3">
-        <v>0.009953827484516183</v>
+        <v>0.007926615051805468</v>
       </c>
       <c r="T3">
-        <v>0.009953827484516183</v>
+        <v>0.007926615051805464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.1362268428217</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H4">
-        <v>40.1362268428217</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I4">
-        <v>0.9086455332075177</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J4">
-        <v>0.9086455332075177</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.608437038669001</v>
+        <v>0.4430953333333334</v>
       </c>
       <c r="N4">
-        <v>0.608437038669001</v>
+        <v>1.329286</v>
       </c>
       <c r="O4">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="P4">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="Q4">
-        <v>24.4203670035937</v>
+        <v>0.6492098418415557</v>
       </c>
       <c r="R4">
-        <v>24.4203670035937</v>
+        <v>5.842888576574001</v>
       </c>
       <c r="S4">
-        <v>0.6025471942332452</v>
+        <v>0.005400616812062522</v>
       </c>
       <c r="T4">
-        <v>0.6025471942332452</v>
+        <v>0.00540061681206252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.1362268428217</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H5">
-        <v>40.1362268428217</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I5">
-        <v>0.9086455332075177</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J5">
-        <v>0.9086455332075177</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.309090422608312</v>
+        <v>0.197154</v>
       </c>
       <c r="N5">
-        <v>0.309090422608312</v>
+        <v>0.591462</v>
       </c>
       <c r="O5">
-        <v>0.3368732115963259</v>
+        <v>0.07440020649742332</v>
       </c>
       <c r="P5">
-        <v>0.3368732115963259</v>
+        <v>0.07440020649742331</v>
       </c>
       <c r="Q5">
-        <v>12.40572331675084</v>
+        <v>0.2888640604620001</v>
       </c>
       <c r="R5">
-        <v>12.40572331675084</v>
+        <v>2.599776544158</v>
       </c>
       <c r="S5">
-        <v>0.3060983389742725</v>
+        <v>0.002402988988747435</v>
       </c>
       <c r="T5">
-        <v>0.3060983389742725</v>
+        <v>0.002402988988747435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.944833629450663</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H6">
-        <v>0.944833629450663</v>
+        <v>120.480656</v>
       </c>
       <c r="I6">
-        <v>0.02139012370013393</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J6">
-        <v>0.02139012370013393</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.608437038669001</v>
+        <v>1.359321</v>
       </c>
       <c r="N6">
-        <v>0.608437038669001</v>
+        <v>4.077963</v>
       </c>
       <c r="O6">
-        <v>0.6631267884036741</v>
+        <v>0.5129683551755682</v>
       </c>
       <c r="P6">
-        <v>0.6631267884036741</v>
+        <v>0.512968355175568</v>
       </c>
       <c r="Q6">
-        <v>0.5748717755378456</v>
+        <v>54.59062859819202</v>
       </c>
       <c r="R6">
-        <v>0.5748717755378456</v>
+        <v>491.3156573837281</v>
       </c>
       <c r="S6">
-        <v>0.01418436403282713</v>
+        <v>0.4541259968458867</v>
       </c>
       <c r="T6">
-        <v>0.01418436403282713</v>
+        <v>0.4541259968458866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.944833629450663</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H7">
-        <v>0.944833629450663</v>
+        <v>120.480656</v>
       </c>
       <c r="I7">
-        <v>0.02139012370013393</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J7">
-        <v>0.02139012370013393</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.309090422608312</v>
+        <v>0.6503416666666667</v>
       </c>
       <c r="N7">
-        <v>0.309090422608312</v>
+        <v>1.951025</v>
       </c>
       <c r="O7">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="P7">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="Q7">
-        <v>0.2920390258214507</v>
+        <v>26.11786354137778</v>
       </c>
       <c r="R7">
-        <v>0.2920390258214507</v>
+        <v>235.0607718724</v>
       </c>
       <c r="S7">
-        <v>0.007205759667306802</v>
+        <v>0.2172680755063854</v>
       </c>
       <c r="T7">
-        <v>0.007205759667306802</v>
+        <v>0.2172680755063854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.78526348099155</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H8">
-        <v>1.78526348099155</v>
+        <v>120.480656</v>
       </c>
       <c r="I8">
-        <v>0.04041664638666947</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J8">
-        <v>0.04041664638666947</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.608437038669001</v>
+        <v>0.4430953333333334</v>
       </c>
       <c r="N8">
-        <v>0.608437038669001</v>
+        <v>1.329286</v>
       </c>
       <c r="O8">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="P8">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="Q8">
-        <v>1.086220425618411</v>
+        <v>17.79480547684623</v>
       </c>
       <c r="R8">
-        <v>1.086220425618411</v>
+        <v>160.153249291616</v>
       </c>
       <c r="S8">
-        <v>0.02680136091643909</v>
+        <v>0.148030604947441</v>
       </c>
       <c r="T8">
-        <v>0.02680136091643909</v>
+        <v>0.1480306049474409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>40.16021866666667</v>
+      </c>
+      <c r="H9">
+        <v>120.480656</v>
+      </c>
+      <c r="I9">
+        <v>0.8852904711645572</v>
+      </c>
+      <c r="J9">
+        <v>0.8852904711645572</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.197154</v>
+      </c>
+      <c r="N9">
+        <v>0.591462</v>
+      </c>
+      <c r="O9">
+        <v>0.07440020649742332</v>
+      </c>
+      <c r="P9">
+        <v>0.07440020649742331</v>
+      </c>
+      <c r="Q9">
+        <v>7.917747751008002</v>
+      </c>
+      <c r="R9">
+        <v>71.25972975907202</v>
+      </c>
+      <c r="S9">
+        <v>0.06586579386484424</v>
+      </c>
+      <c r="T9">
+        <v>0.06586579386484423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.78526348099155</v>
-      </c>
-      <c r="H9">
-        <v>1.78526348099155</v>
-      </c>
-      <c r="I9">
-        <v>0.04041664638666947</v>
-      </c>
-      <c r="J9">
-        <v>0.04041664638666947</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.309090422608312</v>
-      </c>
-      <c r="N9">
-        <v>0.309090422608312</v>
-      </c>
-      <c r="O9">
-        <v>0.3368732115963259</v>
-      </c>
-      <c r="P9">
-        <v>0.3368732115963259</v>
-      </c>
-      <c r="Q9">
-        <v>0.5518078438068643</v>
-      </c>
-      <c r="R9">
-        <v>0.5518078438068643</v>
-      </c>
-      <c r="S9">
-        <v>0.01361528547023039</v>
-      </c>
-      <c r="T9">
-        <v>0.01361528547023039</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.279948333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.839845</v>
+      </c>
+      <c r="I10">
+        <v>0.02821513678717742</v>
+      </c>
+      <c r="J10">
+        <v>0.02821513678717743</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.359321</v>
+      </c>
+      <c r="N10">
+        <v>4.077963</v>
+      </c>
+      <c r="O10">
+        <v>0.5129683551755682</v>
+      </c>
+      <c r="P10">
+        <v>0.512968355175568</v>
+      </c>
+      <c r="Q10">
+        <v>1.739860648415</v>
+      </c>
+      <c r="R10">
+        <v>15.658745835735</v>
+      </c>
+      <c r="S10">
+        <v>0.01447347230877207</v>
+      </c>
+      <c r="T10">
+        <v>0.01447347230877207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.279948333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.839845</v>
+      </c>
+      <c r="I11">
+        <v>0.02821513678717742</v>
+      </c>
+      <c r="J11">
+        <v>0.02821513678717743</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6503416666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.951025</v>
+      </c>
+      <c r="O11">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="P11">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="Q11">
+        <v>0.8324037323472222</v>
+      </c>
+      <c r="R11">
+        <v>7.491633591125001</v>
+      </c>
+      <c r="S11">
+        <v>0.006924561677293791</v>
+      </c>
+      <c r="T11">
+        <v>0.006924561677293791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.279948333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.839845</v>
+      </c>
+      <c r="I12">
+        <v>0.02821513678717742</v>
+      </c>
+      <c r="J12">
+        <v>0.02821513678717743</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4430953333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.329286</v>
+      </c>
+      <c r="O12">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="P12">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="Q12">
+        <v>0.5671391334077778</v>
+      </c>
+      <c r="R12">
+        <v>5.10425220067</v>
+      </c>
+      <c r="S12">
+        <v>0.004717890797792522</v>
+      </c>
+      <c r="T12">
+        <v>0.004717890797792521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.279948333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.839845</v>
+      </c>
+      <c r="I13">
+        <v>0.02821513678717742</v>
+      </c>
+      <c r="J13">
+        <v>0.02821513678717743</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.197154</v>
+      </c>
+      <c r="N13">
+        <v>0.591462</v>
+      </c>
+      <c r="O13">
+        <v>0.07440020649742332</v>
+      </c>
+      <c r="P13">
+        <v>0.07440020649742331</v>
+      </c>
+      <c r="Q13">
+        <v>0.25234693371</v>
+      </c>
+      <c r="R13">
+        <v>2.27112240339</v>
+      </c>
+      <c r="S13">
+        <v>0.002099212003319046</v>
+      </c>
+      <c r="T13">
+        <v>0.002099212003319045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.458552333333333</v>
+      </c>
+      <c r="H14">
+        <v>7.375657</v>
+      </c>
+      <c r="I14">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="J14">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.359321</v>
+      </c>
+      <c r="N14">
+        <v>4.077963</v>
+      </c>
+      <c r="O14">
+        <v>0.5129683551755682</v>
+      </c>
+      <c r="P14">
+        <v>0.512968355175568</v>
+      </c>
+      <c r="Q14">
+        <v>3.341961816299001</v>
+      </c>
+      <c r="R14">
+        <v>30.077656346691</v>
+      </c>
+      <c r="S14">
+        <v>0.027800957421068</v>
+      </c>
+      <c r="T14">
+        <v>0.027800957421068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.458552333333333</v>
+      </c>
+      <c r="H15">
+        <v>7.375657</v>
+      </c>
+      <c r="I15">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="J15">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6503416666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.951025</v>
+      </c>
+      <c r="O15">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="P15">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="Q15">
+        <v>1.598899022047222</v>
+      </c>
+      <c r="R15">
+        <v>14.390091198425</v>
+      </c>
+      <c r="S15">
+        <v>0.01330084724958005</v>
+      </c>
+      <c r="T15">
+        <v>0.01330084724958005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.458552333333333</v>
+      </c>
+      <c r="H16">
+        <v>7.375657</v>
+      </c>
+      <c r="I16">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="J16">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4430953333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.329286</v>
+      </c>
+      <c r="O16">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="P16">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="Q16">
+        <v>1.089373065655778</v>
+      </c>
+      <c r="R16">
+        <v>9.804357590902002</v>
+      </c>
+      <c r="S16">
+        <v>0.009062226284647947</v>
+      </c>
+      <c r="T16">
+        <v>0.009062226284647947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.458552333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.375657</v>
+      </c>
+      <c r="I17">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="J17">
+        <v>0.0541962425958086</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.197154</v>
+      </c>
+      <c r="N17">
+        <v>0.591462</v>
+      </c>
+      <c r="O17">
+        <v>0.07440020649742332</v>
+      </c>
+      <c r="P17">
+        <v>0.07440020649742331</v>
+      </c>
+      <c r="Q17">
+        <v>0.4847134267260001</v>
+      </c>
+      <c r="R17">
+        <v>4.362420840534001</v>
+      </c>
+      <c r="S17">
+        <v>0.00403221164051261</v>
+      </c>
+      <c r="T17">
+        <v>0.004032211640512609</v>
       </c>
     </row>
   </sheetData>
